--- a/ig/sd-add-short-relatedArtifact/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-add-short-relatedArtifact/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-11T10:01:52+00:00</t>
+    <t>2024-01-11T10:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-short-relatedArtifact/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-add-short-relatedArtifact/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-11T10:11:59+00:00</t>
+    <t>2024-01-11T10:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
